--- a/Companies/Bank - Private/Axis Bank Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Bank - Private/Axis Bank Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>12,284.08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12,633.82</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12,587.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12,188.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>11,544.26</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12,188.96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12,587.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12,633.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12,284.08</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>12633.82</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>11544.26</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>12247.706</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2,649.01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2,609.57</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,973.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3,101.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3,189.83</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3,101.93</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2,973.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2,609.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2,649.01</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>3189.83</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>2609.57</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2904.668</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>285.67</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>422.57</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>439.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>259.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>116.47</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>259.09</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>439.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>422.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>285.67</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>439.93</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>116.47</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>304.746</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>489.54</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>568.15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>538.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>512.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>647.79</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>512.91</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>538.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>568.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>489.54</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>647.79</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>489.54</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>551.388</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>3,786.57</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3,985.46</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,586.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3,807.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>3,776.04</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3,807.18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,586.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3,985.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3,786.57</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>3985.46</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2586.68</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>3588.386</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>9,255.32</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9,426.37</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9,553.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8,736.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>8,125.59</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8,736.82</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9,553.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9,426.37</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9,255.32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>9553.58</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>8125.59</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>9019.536</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,365.22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,373.97</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,406.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,412.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,677.35</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,412.94</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,406.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,373.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,365.22</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1677.35</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1365.22</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1447.12</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,131.64</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,568.12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,321.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,822.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,375.94</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,822.70</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,321.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,568.12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,131.64</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3568.12</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2321.47</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3043.974</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>5,742.69</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5,851.11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5,844.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6,897.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>6,095.51</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6,897.61</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5,844.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5,851.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5,742.69</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>6897.61</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>5742.69</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>6086.264</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,470.92</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7,730.02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4,416.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,580.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,604.28</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4,580.65</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4,416.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7,730.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,470.92</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>7730.02</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3470.92</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>4960.458000000001</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,271.77</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1,878.91</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,427.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,316.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,491.23</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,316.96</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,427.98</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-1,878.91</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,271.77</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2316.96</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-1878.91</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1125.806</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>514.77</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-491.13</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>315.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>634.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>374.63</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>634.29</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>315.81</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-491.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>514.77</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>634.29</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-491.13</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>269.674</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,757.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-1,387.78</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,112.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,682.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,116.60</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,682.67</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,112.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-1,387.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,757.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1757</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-1387.78</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>856.1319999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,757.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-1,387.78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,112.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,682.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,116.60</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,682.67</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,112.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-1,387.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,757.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1757</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-1387.78</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>856.1319999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>563.95</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>564.34</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>564.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>612.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>612.29</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>612.03</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>564.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>564.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>563.95</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>612.29</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>563.95</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>583.402</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-4.92</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.65</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-4.92</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.92</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-4.92</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>3.65</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-4.92</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.914</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-4.92</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3.65</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-4.92</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.92</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-4.92</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>3.65</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-4.92</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.914</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>30,073.02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>30,233.82</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>29,560.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26,831.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>21,997.90</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>26,831.64</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>29,560.15</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>30,233.82</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>30,073.02</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>30233.82</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>21997.9</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>27739.306</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>12,160.28</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9,360.41</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7,447.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>6,107.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>4,609.83</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>6,107.88</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>7,447.99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>9,360.41</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>12,160.28</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>12160.28</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>4609.83</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>7937.278</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>3.44</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>4.44</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-0.62</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.386</v>
       </c>
     </row>
     <row r="38"/>
@@ -1568,37 +1329,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>202012</t>
         </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>202006</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>201912</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>202012</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>201912</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>201988.4</v>
       </c>
     </row>
   </sheetData>
